--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +31,28 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,19 +122,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -144,10 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,45 +146,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -256,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,10 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,17 +463,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -517,331 +481,102 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43267</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2364</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="2">
+        <v>2558</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43316</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>43766</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>2376</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>54</v>
+      <c r="C3" s="2">
+        <v>2569</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3" si="0">SUM(C3,-C2)</f>
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F3" s="9">
+        <f>PRODUCT(D3,E3)</f>
+        <v>49.39</v>
+      </c>
+      <c r="G3" s="10">
+        <v>49.39</v>
+      </c>
+      <c r="H3" s="10">
+        <v>49.39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43351</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2408</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43404</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2496</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43634</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2522</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" si="1"/>
-        <v>118.82000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43690</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2539</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>76.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43733</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2558</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="1"/>
-        <v>85.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43766</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2569</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="20">
-        <f>PRODUCT(D9,E9)</f>
-        <v>49.39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -851,12 +586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -865,12 +600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -48,11 +48,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -151,9 +151,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -463,17 +462,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -488,7 +487,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -514,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43733</v>
       </c>
@@ -526,11 +525,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43766</v>
       </c>
@@ -547,36 +546,54 @@
       <c r="E3" s="5">
         <v>4.49</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>PRODUCT(D3,E3)</f>
         <v>49.39</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>49.39</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>49.39</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2604</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4" si="1">SUM(C4,-C3)</f>
+        <v>35</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="8">
+        <f>PRODUCT(D4,E4)</f>
+        <v>157.15</v>
+      </c>
+      <c r="G4" s="9">
+        <v>157.15</v>
+      </c>
+      <c r="H4" s="9">
+        <v>157.15</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -586,12 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,12 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +75,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,26 +107,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -151,9 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,7 +443,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,9 +499,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -546,14 +520,14 @@
       <c r="E3" s="5">
         <v>4.49</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>PRODUCT(D3,E3)</f>
         <v>49.39</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>49.39</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>49.39</v>
       </c>
     </row>
@@ -574,26 +548,44 @@
       <c r="E4" s="5">
         <v>4.49</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>PRODUCT(D4,E4)</f>
         <v>157.15</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>157.15</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>157.15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44015</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2647</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5" si="2">SUM(C5,-C4)</f>
+        <v>43</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="7">
+        <f>PRODUCT(D5,E5)</f>
+        <v>193.07000000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <v>193.07</v>
+      </c>
+      <c r="H5" s="8">
+        <v>193.07</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,10 +440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,6 +585,34 @@
       </c>
       <c r="H5" s="8">
         <v>193.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2711</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6" si="3">SUM(C6,-C5)</f>
+        <v>64</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="7">
+        <f>PRODUCT(D6,E6)</f>
+        <v>301.44</v>
+      </c>
+      <c r="G6" s="8">
+        <v>301.44</v>
+      </c>
+      <c r="H6" s="8">
+        <v>302.39999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,10 +440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,6 +613,34 @@
       </c>
       <c r="H6" s="8">
         <v>302.39999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2759</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7" si="4">SUM(C7,-C6)</f>
+        <v>48</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="7">
+        <f>PRODUCT(D7,E7)</f>
+        <v>226.07999999999998</v>
+      </c>
+      <c r="G7" s="8">
+        <v>226.08</v>
+      </c>
+      <c r="H7" s="8">
+        <v>226.08</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,10 +440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,6 +641,34 @@
       </c>
       <c r="H7" s="8">
         <v>226.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44124</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2789</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="5">SUM(C8,-C7)</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="7">
+        <f>PRODUCT(D8,E8)</f>
+        <v>141.30000000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>151.01</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,10 +440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H3:H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>4.49</v>
       </c>
       <c r="F3" s="7">
-        <f>PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
         <v>49.39</v>
       </c>
       <c r="G3" s="8">
@@ -542,14 +542,14 @@
         <v>2604</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4" si="1">SUM(C4,-C3)</f>
+        <f t="shared" ref="D4" si="2">SUM(C4,-C3)</f>
         <v>35</v>
       </c>
       <c r="E4" s="5">
         <v>4.49</v>
       </c>
       <c r="F4" s="7">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" si="1"/>
         <v>157.15</v>
       </c>
       <c r="G4" s="8">
@@ -570,14 +570,14 @@
         <v>2647</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5" si="2">SUM(C5,-C4)</f>
+        <f t="shared" ref="D5" si="3">SUM(C5,-C4)</f>
         <v>43</v>
       </c>
       <c r="E5" s="5">
         <v>4.49</v>
       </c>
       <c r="F5" s="7">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>193.07000000000002</v>
       </c>
       <c r="G5" s="8">
@@ -598,14 +598,14 @@
         <v>2711</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6" si="3">SUM(C6,-C5)</f>
+        <f t="shared" ref="D6" si="4">SUM(C6,-C5)</f>
         <v>64</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="7">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>301.44</v>
       </c>
       <c r="G6" s="8">
@@ -626,14 +626,14 @@
         <v>2759</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7" si="4">SUM(C7,-C6)</f>
+        <f t="shared" ref="D7" si="5">SUM(C7,-C6)</f>
         <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>4.71</v>
       </c>
       <c r="F7" s="7">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>226.07999999999998</v>
       </c>
       <c r="G7" s="8">
@@ -654,14 +654,14 @@
         <v>2789</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8" si="5">SUM(C8,-C7)</f>
+        <f t="shared" ref="D8" si="6">SUM(C8,-C7)</f>
         <v>30</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="7">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>141.30000000000001</v>
       </c>
       <c r="G8" s="8">
@@ -669,6 +669,34 @@
       </c>
       <c r="H8" s="8">
         <v>151.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44349</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2833</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9" si="7">SUM(C9,-C8)</f>
+        <v>44</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9" si="8">PRODUCT(D9,E9)</f>
+        <v>207.24</v>
+      </c>
+      <c r="G9" s="8">
+        <v>207.24</v>
+      </c>
+      <c r="H9" s="8">
+        <v>207.24</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,10 +440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -697,6 +697,34 @@
       </c>
       <c r="H9" s="8">
         <v>207.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44383</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2862</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10" si="9">SUM(C10,-C9)</f>
+        <v>29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10" si="10">PRODUCT(D10,E10)</f>
+        <v>143.84</v>
+      </c>
+      <c r="G10" s="8">
+        <v>143.84</v>
+      </c>
+      <c r="H10" s="8">
+        <v>143.84</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,10 +440,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,6 +725,34 @@
       </c>
       <c r="H10" s="8">
         <v>143.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44424</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2884</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="11">SUM(C11,-C10)</f>
+        <v>22</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" ref="F11" si="12">PRODUCT(D11,E11)</f>
+        <v>109.12</v>
+      </c>
+      <c r="G11" s="8">
+        <v>109.12</v>
+      </c>
+      <c r="H11" s="8">
+        <v>109.12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/281ee.xlsx
+++ b/sputnik/personal/ee/281ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
@@ -440,7 +440,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -753,6 +753,34 @@
       </c>
       <c r="H11" s="8">
         <v>109.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44488</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="13">SUM(C12,-C11)</f>
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12" si="14">PRODUCT(D12,E12)</f>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="G12" s="8">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>148.80000000000001</v>
       </c>
     </row>
   </sheetData>
